--- a/data/dataframe/10085.xlsx
+++ b/data/dataframe/10085.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/xsec_JAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3743F0B-1FA3-164F-A5A3-52E90869B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B35949-60D0-814A-AED2-0AE81E97FF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="format" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
